--- a/data/trans_orig/P50_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P50_1-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1917</v>
+        <v>1929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10854</v>
+        <v>11059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02044926079582015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007943583854874044</v>
+        <v>0.00799193740837971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04497183754464181</v>
+        <v>0.04582203689707012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5327</v>
+        <v>6985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005723879096580701</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02884735104204698</v>
+        <v>0.03782232893447886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -784,19 +784,19 @@
         <v>5992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2075</v>
+        <v>2043</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13043</v>
+        <v>12843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01406605960189007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004871474100551136</v>
+        <v>0.004796628832406488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03061496106165813</v>
+        <v>0.03014548297557818</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>12883</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7764</v>
+        <v>6906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21707</v>
+        <v>20619</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05338013827538068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03216870920423798</v>
+        <v>0.02861281582897891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08994135846829719</v>
+        <v>0.085433960989725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -834,19 +834,19 @@
         <v>7037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3025</v>
+        <v>3007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13863</v>
+        <v>14145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03810520649205699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01638287967263791</v>
+        <v>0.01628426117178392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07506908600422892</v>
+        <v>0.07659521959375008</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -855,19 +855,19 @@
         <v>19920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12670</v>
+        <v>12949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29998</v>
+        <v>30404</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04675871651613703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02974030291735372</v>
+        <v>0.03039393684703283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07041370483784828</v>
+        <v>0.07136606716370722</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>7816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3819</v>
+        <v>3875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14375</v>
+        <v>14645</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03238274921486545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01582428759742793</v>
+        <v>0.01605422728968621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05955931614856238</v>
+        <v>0.06067942736618399</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -905,19 +905,19 @@
         <v>6931</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2978</v>
+        <v>2941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13625</v>
+        <v>12962</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03752977062778901</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01612463553878515</v>
+        <v>0.01592744600270745</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0737805732303375</v>
+        <v>0.070187248649055</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -926,19 +926,19 @@
         <v>14746</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8487</v>
+        <v>8570</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24071</v>
+        <v>22811</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03461389499425494</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01992066916411928</v>
+        <v>0.02011685161120257</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05650266232381127</v>
+        <v>0.0535437343966462</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>215716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>204696</v>
+        <v>205367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>223247</v>
+        <v>224358</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8937878517139337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8481313038891106</v>
+        <v>0.8509110733486309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9249928716622229</v>
+        <v>0.9295957403720706</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -976,19 +976,19 @@
         <v>169649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160671</v>
+        <v>161446</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175667</v>
+        <v>175749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9186411437835733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8700251263557037</v>
+        <v>0.8742236912372053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9512274082587774</v>
+        <v>0.9516694402163022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>375</v>
@@ -997,19 +997,19 @@
         <v>385365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>372901</v>
+        <v>371334</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>396864</v>
+        <v>395232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9045613288877179</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8753043626304725</v>
+        <v>0.8716273406736802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9315532873027831</v>
+        <v>0.9277218325545994</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>16176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9750</v>
+        <v>9870</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26770</v>
+        <v>28000</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02668798346734927</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01608702174359919</v>
+        <v>0.01628446530050057</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04416629428387943</v>
+        <v>0.04619685725544983</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1122,19 +1122,19 @@
         <v>8077</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3918</v>
+        <v>4005</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15075</v>
+        <v>15531</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01760244618130124</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008537963578394139</v>
+        <v>0.008728373251601387</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03285226410851009</v>
+        <v>0.03384639262142445</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -1143,19 +1143,19 @@
         <v>24253</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15778</v>
+        <v>16004</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36534</v>
+        <v>36062</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02277327357911121</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01481522701251868</v>
+        <v>0.01502731966765297</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03430463026256653</v>
+        <v>0.03386208577660962</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>12885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7022</v>
+        <v>7357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21629</v>
+        <v>21225</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02125852146769659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01158524623885892</v>
+        <v>0.01213758280249828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03568543544074551</v>
+        <v>0.03501837182481401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1193,19 +1193,19 @@
         <v>6363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3052</v>
+        <v>2086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13780</v>
+        <v>12814</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01386562731666318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006652108313022342</v>
+        <v>0.004546913336301099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03002977610579074</v>
+        <v>0.02792569484925506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1214,19 +1214,19 @@
         <v>19247</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11952</v>
+        <v>11631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29613</v>
+        <v>29213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01807312527982443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01122234630636224</v>
+        <v>0.01092101839184056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02780576335598782</v>
+        <v>0.02743022921508658</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>21632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13877</v>
+        <v>14021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31784</v>
+        <v>31550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03569053156187234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02289530988294226</v>
+        <v>0.02313217849006064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05244030267659631</v>
+        <v>0.0520535729009854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>3940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9830</v>
+        <v>9811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008585475841446803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002163342242339429</v>
+        <v>0.002127830378338992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02142207697650012</v>
+        <v>0.02138057662813137</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1285,19 +1285,19 @@
         <v>25572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17039</v>
+        <v>16856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36169</v>
+        <v>37640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02401170329786466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01599944361065597</v>
+        <v>0.01582731058121814</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03396227113565826</v>
+        <v>0.03534323992152489</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>555415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>541410</v>
+        <v>540953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>567866</v>
+        <v>566443</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9163629635030818</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8932570078950338</v>
+        <v>0.8925024192460709</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9369052091485075</v>
+        <v>0.9345586660054434</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>412</v>
@@ -1335,19 +1335,19 @@
         <v>440491</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>430271</v>
+        <v>430282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>447640</v>
+        <v>447908</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9599464506605888</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9376745381971285</v>
+        <v>0.9376989448560622</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9755278914830893</v>
+        <v>0.976110832568875</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>955</v>
@@ -1356,19 +1356,19 @@
         <v>995906</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>979152</v>
+        <v>979123</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1009482</v>
+        <v>1010421</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9351418978431997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9194106796243251</v>
+        <v>0.9193831991668372</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9478898234619794</v>
+        <v>0.9487720375605707</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>11673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6788</v>
+        <v>5892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21739</v>
+        <v>19099</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01912658828127417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01112230324888725</v>
+        <v>0.009654621041564148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0356199891324343</v>
+        <v>0.03129464901768694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1481,19 +1481,19 @@
         <v>8805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3968</v>
+        <v>3974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17484</v>
+        <v>18667</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01795471392004657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008091962606058069</v>
+        <v>0.008103087622432526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03565120356104534</v>
+        <v>0.0380642658160231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1502,19 +1502,19 @@
         <v>20478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12870</v>
+        <v>12510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30856</v>
+        <v>31190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01860446606883339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01169208150710901</v>
+        <v>0.01136518108893471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0280322053807996</v>
+        <v>0.02833637197798303</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>18935</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11123</v>
+        <v>11071</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29286</v>
+        <v>29325</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03102602435810554</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01822608027457758</v>
+        <v>0.01814098148113016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04798569003098885</v>
+        <v>0.04804987210460346</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -1552,19 +1552,19 @@
         <v>11231</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6093</v>
+        <v>5151</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19140</v>
+        <v>18500</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02289981080068458</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01242314550869614</v>
+        <v>0.01050225646404762</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03902710078555395</v>
+        <v>0.03772298515746572</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>29</v>
@@ -1573,19 +1573,19 @@
         <v>30166</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20070</v>
+        <v>20471</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>42363</v>
+        <v>42486</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02740543435140702</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0182338618389825</v>
+        <v>0.01859790192842642</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03848689541031917</v>
+        <v>0.03859844337053725</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>18231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11026</v>
+        <v>11156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30265</v>
+        <v>32498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02987235675602834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01806582243254689</v>
+        <v>0.01827958686255718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04959098915474137</v>
+        <v>0.05324992402877195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1623,19 +1623,19 @@
         <v>7309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3121</v>
+        <v>3196</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14368</v>
+        <v>14838</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01490341852734477</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00636424481405722</v>
+        <v>0.006517373052134033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02929793376875403</v>
+        <v>0.03025532507560288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1644,19 +1644,19 @@
         <v>25540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16115</v>
+        <v>16895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37919</v>
+        <v>38390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02320302819621387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01464079025803902</v>
+        <v>0.01534942449840787</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03444931138129458</v>
+        <v>0.03487686630282816</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>561460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>545697</v>
+        <v>545544</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>574663</v>
+        <v>573761</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.919975030604592</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8941467329965985</v>
+        <v>0.8938968422414868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9416088135355234</v>
+        <v>0.9401305965926434</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>437</v>
@@ -1694,19 +1694,19 @@
         <v>463074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>451238</v>
+        <v>451748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>472389</v>
+        <v>472473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9442420567519241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9201079843414812</v>
+        <v>0.9211474650661013</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9632354838951602</v>
+        <v>0.9634058831459829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>975</v>
@@ -1715,19 +1715,19 @@
         <v>1024534</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1004842</v>
+        <v>1004144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1041134</v>
+        <v>1039498</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9307870713835457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9128971242450691</v>
+        <v>0.9122624595661208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9458680504364391</v>
+        <v>0.9443818091251961</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>12590</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6384</v>
+        <v>6754</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21569</v>
+        <v>21023</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02417739414413144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01225997077401425</v>
+        <v>0.01297089523065292</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0414213137725473</v>
+        <v>0.04037199350557775</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>12590</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6992</v>
+        <v>6711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20746</v>
+        <v>21246</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01464948321003441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008135461490503806</v>
+        <v>0.007808358167318115</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02414008241880161</v>
+        <v>0.02472192083535104</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>11936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6237</v>
+        <v>5543</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23787</v>
+        <v>22272</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02292225114404057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01197727171082062</v>
+        <v>0.01064530776130977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04568018901503781</v>
+        <v>0.0427714165531142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1903,19 +1903,19 @@
         <v>6651</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2896</v>
+        <v>2305</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14441</v>
+        <v>14313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01963717994956467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008549917279425168</v>
+        <v>0.006806479173463819</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04263950828096655</v>
+        <v>0.04226071256203144</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1924,19 +1924,19 @@
         <v>18587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10672</v>
+        <v>10656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31467</v>
+        <v>30723</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02162765894909422</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0124180808357947</v>
+        <v>0.01239961715483058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03661459120750481</v>
+        <v>0.03574924816796184</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>20875</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12968</v>
+        <v>12911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30580</v>
+        <v>31194</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04008855023664211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02490376852846023</v>
+        <v>0.02479322751952534</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05872531832791283</v>
+        <v>0.059904812826102</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1974,19 +1974,19 @@
         <v>6249</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2145</v>
+        <v>2193</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13218</v>
+        <v>12616</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01845171195713009</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00633454913314292</v>
+        <v>0.006474895454642018</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03902909357131139</v>
+        <v>0.03724950190741953</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -1995,19 +1995,19 @@
         <v>27125</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18171</v>
+        <v>19374</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38996</v>
+        <v>39915</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03156183032656068</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02114327995025722</v>
+        <v>0.02254370583876413</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04537564118180229</v>
+        <v>0.04644422258692075</v>
       </c>
     </row>
     <row r="22">
@@ -2024,19 +2024,19 @@
         <v>475328</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>461724</v>
+        <v>460073</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>487457</v>
+        <v>488019</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9128118044751858</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8866868559185057</v>
+        <v>0.8835163942417138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9361034345175137</v>
+        <v>0.937181497585287</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>281</v>
@@ -2045,19 +2045,19 @@
         <v>325779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>316863</v>
+        <v>317418</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>331372</v>
+        <v>331268</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9619111080933053</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9355837168493599</v>
+        <v>0.9372225618563611</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9784244820741121</v>
+        <v>0.9781173285463235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>705</v>
@@ -2066,19 +2066,19 @@
         <v>801108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>784397</v>
+        <v>781517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>814538</v>
+        <v>814809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9321610275143107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9127163659469976</v>
+        <v>0.9093652726605385</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9477884123165713</v>
+        <v>0.9481041286016918</v>
       </c>
     </row>
     <row r="23">
@@ -2170,19 +2170,19 @@
         <v>8152</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3874</v>
+        <v>3743</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15165</v>
+        <v>14543</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02234493149077052</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01061801284257658</v>
+        <v>0.01026054719382402</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04156509888427905</v>
+        <v>0.03986251336554954</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4346</v>
+        <v>4455</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008802727818766662</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03578728116265137</v>
+        <v>0.03669087413575391</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2212,19 +2212,19 @@
         <v>9221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4248</v>
+        <v>4265</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16889</v>
+        <v>17343</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01896325926258386</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008735386412450547</v>
+        <v>0.00877021724903846</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03473207724849877</v>
+        <v>0.03566519177159154</v>
       </c>
     </row>
     <row r="25">
@@ -2241,19 +2241,19 @@
         <v>7388</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3126</v>
+        <v>3157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14150</v>
+        <v>14220</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02025021484979411</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008569417341871674</v>
+        <v>0.008653916279159875</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03878544034805539</v>
+        <v>0.03897644386475262</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2275,19 +2275,19 @@
         <v>7388</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3150</v>
+        <v>3191</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14188</v>
+        <v>14651</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01519346110195826</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006478318422121587</v>
+        <v>0.006562419804616273</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02917792280461676</v>
+        <v>0.03012911019376315</v>
       </c>
     </row>
     <row r="26">
@@ -2304,19 +2304,19 @@
         <v>14497</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8534</v>
+        <v>8196</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25122</v>
+        <v>23431</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0397354520835455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02339197260286157</v>
+        <v>0.02246387286921758</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06885692887536539</v>
+        <v>0.06422306564898203</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5217</v>
+        <v>5291</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00852006237788532</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04296663404104848</v>
+        <v>0.04357484579178507</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2346,19 +2346,19 @@
         <v>15532</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8901</v>
+        <v>8845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24612</v>
+        <v>24999</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03194054521193478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01830518514527169</v>
+        <v>0.01818988670561631</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05061342319377462</v>
+        <v>0.05141043245060924</v>
       </c>
     </row>
     <row r="27">
@@ -2375,19 +2375,19 @@
         <v>334803</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>322771</v>
+        <v>322574</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>343956</v>
+        <v>344169</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9176694015758898</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8846927942067458</v>
+        <v>0.8841515063157358</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9427571648404192</v>
+        <v>0.9433414711399066</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>104</v>
@@ -2396,7 +2396,7 @@
         <v>119325</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>114961</v>
+        <v>114186</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>121428</v>
@@ -2405,7 +2405,7 @@
         <v>0.9826772098033481</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9467449203351754</v>
+        <v>0.9403596998357652</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -2417,19 +2417,19 @@
         <v>454126</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>441337</v>
+        <v>440908</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>464503</v>
+        <v>463915</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9339027344235231</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9076019934680825</v>
+        <v>0.9067207413855739</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9552436168169871</v>
+        <v>0.9540333537810592</v>
       </c>
     </row>
     <row r="28">
@@ -2521,19 +2521,19 @@
         <v>3076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8357</v>
+        <v>8384</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01537627959290214</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004984536314655363</v>
+        <v>0.004960079872272349</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04177048780457758</v>
+        <v>0.04190680766898361</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6099</v>
+        <v>6273</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04688542698013949</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1474414715121768</v>
+        <v>0.1516607829564465</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2563,19 +2563,19 @@
         <v>5016</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1964</v>
+        <v>1974</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11060</v>
+        <v>10690</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02077479055686317</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008133460110657542</v>
+        <v>0.00817682239775654</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04580978293849761</v>
+        <v>0.04427507238270662</v>
       </c>
     </row>
     <row r="30">
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4075</v>
+        <v>4191</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004909514574292896</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02036630403981622</v>
+        <v>0.02094539118091969</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5787</v>
+        <v>4546</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004068359847656844</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02397046814143698</v>
+        <v>0.01882742455512863</v>
       </c>
     </row>
     <row r="31">
@@ -2655,19 +2655,19 @@
         <v>3839</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8878</v>
+        <v>8874</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01918889810672494</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004959409003805471</v>
+        <v>0.004909480109625614</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04437548933934857</v>
+        <v>0.04435377343118792</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2689,19 +2689,19 @@
         <v>3839</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8924</v>
+        <v>9564</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01590123451042448</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004107105595322358</v>
+        <v>0.004112521588303534</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03696105399514037</v>
+        <v>0.03961257143878018</v>
       </c>
     </row>
     <row r="32">
@@ -2718,19 +2718,19 @@
         <v>192171</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>185714</v>
+        <v>185476</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>196912</v>
+        <v>196220</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.96052530772608</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9282497800140582</v>
+        <v>0.9270578788118039</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9842196548710118</v>
+        <v>0.9807594767753085</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -2739,7 +2739,7 @@
         <v>39426</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35266</v>
+        <v>35092</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>41365</v>
@@ -2748,7 +2748,7 @@
         <v>0.9531145730198605</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8525585284878232</v>
+        <v>0.8483392170435536</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2760,19 +2760,19 @@
         <v>231597</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>223834</v>
+        <v>224843</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>236403</v>
+        <v>235842</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9592556150850555</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.927101331388792</v>
+        <v>0.9312810475354892</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9791600242329577</v>
+        <v>0.9768377078772654</v>
       </c>
     </row>
     <row r="33">
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5295</v>
+        <v>5487</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01357990724779989</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0668854953538835</v>
+        <v>0.06931088569789268</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5411</v>
+        <v>5450</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01132796734207266</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05701808657451617</v>
+        <v>0.05742875292467352</v>
       </c>
     </row>
     <row r="36">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7263</v>
+        <v>7464</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1540226989673313</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4615028816267774</v>
+        <v>0.4742793895790874</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7693</v>
+        <v>8316</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02554140141483952</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08106267356412336</v>
+        <v>0.08762123878846985</v>
       </c>
     </row>
     <row r="37">
@@ -3037,7 +3037,7 @@
         <v>78092</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>73872</v>
+        <v>73680</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>79167</v>
@@ -3046,7 +3046,7 @@
         <v>0.9864200927522001</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9331145046461164</v>
+        <v>0.9306891143021071</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -3058,7 +3058,7 @@
         <v>13314</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8475</v>
+        <v>8274</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>15738</v>
@@ -3067,7 +3067,7 @@
         <v>0.8459773010326688</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5384971183732222</v>
+        <v>0.5257206104209127</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -3079,19 +3079,19 @@
         <v>91406</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>86462</v>
+        <v>85335</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>93868</v>
+        <v>93837</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9631306312430878</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.911037617271322</v>
+        <v>0.8991611269707603</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9890730415543201</v>
+        <v>0.9887431202289562</v>
       </c>
     </row>
     <row r="38">
@@ -3183,19 +3183,19 @@
         <v>56603</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>43104</v>
+        <v>43393</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>72709</v>
+        <v>73162</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02158297613179662</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01643592764460756</v>
+        <v>0.0165460373150496</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02772460089637868</v>
+        <v>0.02789732109329921</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>20</v>
@@ -3204,19 +3204,19 @@
         <v>20948</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12834</v>
+        <v>12730</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>32816</v>
+        <v>31359</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01268670238884361</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.007772810822987926</v>
+        <v>0.007709519506589728</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01987452080799909</v>
+        <v>0.01899206834857264</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>75</v>
@@ -3225,19 +3225,19 @@
         <v>77551</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>60940</v>
+        <v>61310</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>96764</v>
+        <v>97210</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01814586932316565</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01425910386129569</v>
+        <v>0.01434581536466386</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02264150933582904</v>
+        <v>0.02274594655986286</v>
       </c>
     </row>
     <row r="40">
@@ -3254,19 +3254,19 @@
         <v>66085</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>50080</v>
+        <v>51001</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>84116</v>
+        <v>84731</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02519868231058463</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01909578110685467</v>
+        <v>0.01944703265327569</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03207399733028287</v>
+        <v>0.03230841908316096</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>30</v>
@@ -3275,19 +3275,19 @@
         <v>31281</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>21970</v>
+        <v>20540</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>44463</v>
+        <v>42928</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01894457596351695</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01330552289989892</v>
+        <v>0.01243945725442233</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.026928121826816</v>
+        <v>0.02599864928700964</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>92</v>
@@ -3296,19 +3296,19 @@
         <v>97366</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>79661</v>
+        <v>80533</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>120125</v>
+        <v>120280</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02278238621533058</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01863957428971268</v>
+        <v>0.0188436427781411</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02810768588609779</v>
+        <v>0.02814408988574919</v>
       </c>
     </row>
     <row r="41">
@@ -3325,19 +3325,19 @@
         <v>86890</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>69061</v>
+        <v>70251</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>107014</v>
+        <v>109377</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03313189320520502</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02633357198609864</v>
+        <v>0.02678712602749797</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04080495796238932</v>
+        <v>0.04170631339501456</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -3346,19 +3346,19 @@
         <v>27887</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>18630</v>
+        <v>18648</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>39091</v>
+        <v>39995</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01688926129037737</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01128284491471322</v>
+        <v>0.01129387376236521</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02367446845599032</v>
+        <v>0.02422231280114007</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>113</v>
@@ -3367,19 +3367,19 @@
         <v>114778</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>94889</v>
+        <v>94659</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>138411</v>
+        <v>135890</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02685649494773082</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02220273009745182</v>
+        <v>0.02214907034285395</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03238631397271156</v>
+        <v>0.0317964505703431</v>
       </c>
     </row>
     <row r="42">
@@ -3396,19 +3396,19 @@
         <v>2412984</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2381196</v>
+        <v>2381944</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2440197</v>
+        <v>2438821</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9200864483524137</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.907965546476755</v>
+        <v>0.9082509702110712</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9304628661262559</v>
+        <v>0.9299384407425615</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1447</v>
@@ -3417,19 +3417,19 @@
         <v>1571057</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1550879</v>
+        <v>1552097</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1587550</v>
+        <v>1588259</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9514794603572621</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9392591979465412</v>
+        <v>0.9399963847432906</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9614681873037439</v>
+        <v>0.9618971445437727</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3710</v>
@@ -3438,19 +3438,19 @@
         <v>3984041</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3953717</v>
+        <v>3950434</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4019130</v>
+        <v>4015949</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.932215249513773</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9251197607833447</v>
+        <v>0.9243515809443994</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9404257074951756</v>
+        <v>0.9396813177991943</v>
       </c>
     </row>
     <row r="43">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6106</v>
+        <v>6357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00981895021542256</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03327405065121966</v>
+        <v>0.03463827933944533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7205</v>
+        <v>5607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004550222032889487</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01819530006653372</v>
+        <v>0.01415789955919248</v>
       </c>
     </row>
     <row r="5">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5988</v>
+        <v>6025</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00545199724134909</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03263124835005068</v>
+        <v>0.03283334643010136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5054</v>
+        <v>4354</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002526522431275177</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01276344869245422</v>
+        <v>0.01099461297927524</v>
       </c>
     </row>
     <row r="7">
@@ -3971,19 +3971,19 @@
         <v>180712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>175833</v>
+        <v>175785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182624</v>
+        <v>182628</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9847290525432284</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9581442010467917</v>
+        <v>0.9578849104174537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.995150777472656</v>
+        <v>0.9951706786932855</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>386</v>
@@ -3992,19 +3992,19 @@
         <v>393204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>386685</v>
+        <v>388725</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>395114</v>
+        <v>395115</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9929232555358354</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9764625241029995</v>
+        <v>0.9816129734514871</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9977470131565689</v>
+        <v>0.9977511530760601</v>
       </c>
     </row>
     <row r="8">
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7026</v>
+        <v>6402</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003922219996689536</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01375207322713988</v>
+        <v>0.01253160838491476</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5310</v>
+        <v>7022</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002453364065792045</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01295244719743952</v>
+        <v>0.01712872501573643</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -4138,19 +4138,19 @@
         <v>3010</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7824</v>
+        <v>7787</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00326830541859274</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001070898740229903</v>
+        <v>0.001063818231672953</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008496031542375822</v>
+        <v>0.008455955963122116</v>
       </c>
     </row>
     <row r="10">
@@ -4167,19 +4167,19 @@
         <v>3952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9832</v>
+        <v>9984</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007735360318057715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001985868252502044</v>
+        <v>0.001982737007188296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01924398695831623</v>
+        <v>0.01954185898259291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4201,19 +4201,19 @@
         <v>3952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>984</v>
+        <v>1021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8970</v>
+        <v>9722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004291683663044491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001068994416114044</v>
+        <v>0.00110891046600291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009740853333056057</v>
+        <v>0.01055740544297868</v>
       </c>
     </row>
     <row r="11">
@@ -4230,19 +4230,19 @@
         <v>5444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2006</v>
+        <v>1894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11629</v>
+        <v>11715</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01065656345354646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003926750378240783</v>
+        <v>0.003706835544129543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02276105655018744</v>
+        <v>0.02292924072028301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4251,19 +4251,19 @@
         <v>3766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9461</v>
+        <v>9393</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009186074130167483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002288257759814906</v>
+        <v>0.002305838009328867</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02307943713772922</v>
+        <v>0.02291360047295741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -4272,19 +4272,19 @@
         <v>9210</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3853</v>
+        <v>4197</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15674</v>
+        <v>16368</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0100019217114488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004183813725492556</v>
+        <v>0.004557935620921849</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01702089644527155</v>
+        <v>0.01777500849420031</v>
       </c>
     </row>
     <row r="12">
@@ -4301,19 +4301,19 @@
         <v>499498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>492144</v>
+        <v>491275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>504844</v>
+        <v>505348</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9776858562317063</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9632929249145932</v>
+        <v>0.9615908851658537</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9881498234049244</v>
+        <v>0.9891368178637738</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>420</v>
@@ -4322,19 +4322,19 @@
         <v>405176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>399288</v>
+        <v>399489</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>408104</v>
+        <v>408150</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9883605618040404</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9739967364186084</v>
+        <v>0.9744871293379553</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9955026719203212</v>
+        <v>0.9956129247357556</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>901</v>
@@ -4343,19 +4343,19 @@
         <v>904675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>895832</v>
+        <v>895580</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>910958</v>
+        <v>911645</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.982438089206914</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9728343863164116</v>
+        <v>0.9725607672081189</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.989261330376871</v>
+        <v>0.9900065738574823</v>
       </c>
     </row>
     <row r="13">
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4670</v>
+        <v>5627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00157882034900491</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007914887485754666</v>
+        <v>0.009536176263524739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4468,19 +4468,19 @@
         <v>3354</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10147</v>
+        <v>9090</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006948224531665797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00191944850345137</v>
+        <v>0.001909973015301171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02101876691286666</v>
+        <v>0.01882932817604462</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4489,19 +4489,19 @@
         <v>4286</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>940</v>
+        <v>983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10948</v>
+        <v>10940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003994885717264164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00087605476496966</v>
+        <v>0.0009158056416424191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01020438821258213</v>
+        <v>0.01019735862908927</v>
       </c>
     </row>
     <row r="15">
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6486</v>
+        <v>6499</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003139870470191212</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01099101674452988</v>
+        <v>0.01101321395710803</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5600</v>
+        <v>5721</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001727026131084397</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005219856379818429</v>
+        <v>0.005332292688579856</v>
       </c>
     </row>
     <row r="16">
@@ -4581,19 +4581,19 @@
         <v>5821</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2433</v>
+        <v>2567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12579</v>
+        <v>12584</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009864905270544783</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004122835614600954</v>
+        <v>0.004350057699469953</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02131633527139227</v>
+        <v>0.02132510083746507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6318</v>
+        <v>5472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00374985045711016</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01308831721155018</v>
+        <v>0.01133437618310448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -4623,19 +4623,19 @@
         <v>7631</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3747</v>
+        <v>3743</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15067</v>
+        <v>15404</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007113320242273584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003492944280107611</v>
+        <v>0.003488916211296485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01404443856968651</v>
+        <v>0.0143582247670522</v>
       </c>
     </row>
     <row r="17">
@@ -4652,19 +4652,19 @@
         <v>581483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>574643</v>
+        <v>573845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>586085</v>
+        <v>586220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9854164039102591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9738250173966045</v>
+        <v>0.9724722288095373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9932147771416414</v>
+        <v>0.9934428609018262</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>478</v>
@@ -4673,19 +4673,19 @@
         <v>477576</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>470053</v>
+        <v>471756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>480882</v>
+        <v>481290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.989301925011224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9737193480280126</v>
+        <v>0.9772475484741036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9961518918754368</v>
+        <v>0.9969969797484536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1033</v>
@@ -4694,19 +4694,19 @@
         <v>1059059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1049383</v>
+        <v>1049909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1065400</v>
+        <v>1064793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9871647679093779</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9781452313177964</v>
+        <v>0.9786357841726656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9930748758801909</v>
+        <v>0.9925091064192685</v>
       </c>
     </row>
     <row r="18">
@@ -4811,19 +4811,19 @@
         <v>3091</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8827</v>
+        <v>8857</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007588057862448309</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002438446434614281</v>
+        <v>0.002372654183795281</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02166765912047654</v>
+        <v>0.02174027116365272</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -4835,16 +4835,16 @@
         <v>989</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9180</v>
+        <v>8673</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003245762433092961</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001037879383947818</v>
+        <v>0.001038017676676378</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009638198827573314</v>
+        <v>0.009106382671102647</v>
       </c>
     </row>
     <row r="20">
@@ -4908,19 +4908,19 @@
         <v>4105</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12326</v>
+        <v>12455</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00753174703955538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002001813839636216</v>
+        <v>0.002015998613277923</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02261462929267864</v>
+        <v>0.02285210520247991</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4942,19 +4942,19 @@
         <v>4105</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11264</v>
+        <v>11445</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004310071343389784</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001146049701606768</v>
+        <v>0.001144077010293463</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01182697321238619</v>
+        <v>0.01201682442280805</v>
       </c>
     </row>
     <row r="22">
@@ -4971,19 +4971,19 @@
         <v>540932</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532711</v>
+        <v>532582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>543946</v>
+        <v>543938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9924682529604446</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9773853707073213</v>
+        <v>0.9771478947975201</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9979981861603637</v>
+        <v>0.9979840013867222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>373</v>
@@ -4992,19 +4992,19 @@
         <v>404311</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>398575</v>
+        <v>398545</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>406409</v>
+        <v>406435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9924119421375517</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9783323408795241</v>
+        <v>0.9782597288363466</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9975615535653857</v>
+        <v>0.9976273458162047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>862</v>
@@ -5013,19 +5013,19 @@
         <v>945242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>936845</v>
+        <v>936473</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>949347</v>
+        <v>949431</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9924441662235173</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9836285169390661</v>
+        <v>0.9832375527972755</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9967551292806046</v>
+        <v>0.9968425077879984</v>
       </c>
     </row>
     <row r="23">
@@ -5211,19 +5211,19 @@
         <v>5440</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12629</v>
+        <v>11186</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01382833644823893</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005385415629414468</v>
+        <v>0.0053757896562213</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03210507394325904</v>
+        <v>0.0284366444801651</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5478</v>
+        <v>5540</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006390289952472973</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03203354298513886</v>
+        <v>0.03240081853305099</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -5253,19 +5253,19 @@
         <v>6532</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2299</v>
+        <v>2242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14364</v>
+        <v>13263</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01157471074946041</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004072789883362227</v>
+        <v>0.003972819825133257</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0254520682032617</v>
+        <v>0.02350103875824852</v>
       </c>
     </row>
     <row r="27">
@@ -5282,19 +5282,19 @@
         <v>387933</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>380744</v>
+        <v>382187</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>391255</v>
+        <v>391258</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9861716635517611</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9678949260567407</v>
+        <v>0.9715633555198349</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9946145843705855</v>
+        <v>0.9946242103437787</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>145</v>
@@ -5303,7 +5303,7 @@
         <v>169903</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>165518</v>
+        <v>165456</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>170996</v>
@@ -5312,7 +5312,7 @@
         <v>0.9936097100475271</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9679664570148609</v>
+        <v>0.967599181466949</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5324,19 +5324,19 @@
         <v>557838</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>550006</v>
+        <v>551107</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>562071</v>
+        <v>562128</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9884252892505396</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9745479317967382</v>
+        <v>0.9764989612417514</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9959272101166378</v>
+        <v>0.9960271801748668</v>
       </c>
     </row>
     <row r="28">
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5236</v>
+        <v>5086</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004335770549868026</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0219229180376624</v>
+        <v>0.021295238806648</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5171</v>
+        <v>5932</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003498784410471329</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01747340697699745</v>
+        <v>0.02004316408131728</v>
       </c>
     </row>
     <row r="30">
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4730</v>
+        <v>4795</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.003960078259936559</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01980753628046018</v>
+        <v>0.02007831136767052</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4603</v>
+        <v>5547</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003195616539379418</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01555355557186318</v>
+        <v>0.01874465171398782</v>
       </c>
     </row>
     <row r="31">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6886</v>
+        <v>6360</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.008232227194022078</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02883197800106394</v>
+        <v>0.02662924040063653</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5969</v>
+        <v>6093</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006643060982731037</v>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02017027394866098</v>
+        <v>0.02058734696689237</v>
       </c>
     </row>
     <row r="32">
@@ -5617,19 +5617,19 @@
         <v>234870</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>228903</v>
+        <v>229823</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>237810</v>
+        <v>237800</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9834719239961733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.95848833110972</v>
+        <v>0.9623386963557847</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9957813543253967</v>
+        <v>0.9957428479289667</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>51</v>
@@ -5651,19 +5651,19 @@
         <v>292000</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>286860</v>
+        <v>286922</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>294931</v>
+        <v>294934</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9866625380674182</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9692950275698118</v>
+        <v>0.9695034161738296</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9965681183846217</v>
+        <v>0.9965762697670165</v>
       </c>
     </row>
     <row r="33">
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7160</v>
+        <v>4703</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0817301542486782</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5174477133366259</v>
+        <v>0.3398923747913449</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5663</v>
+        <v>6860</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0112493613137817</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05632672577542211</v>
+        <v>0.06823303986489922</v>
       </c>
     </row>
     <row r="36">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5033</v>
+        <v>5576</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08912736717006396</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3637415261161389</v>
+        <v>0.4030063288997416</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6552</v>
+        <v>6060</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01226751577136966</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06517415090754475</v>
+        <v>0.06028331256518678</v>
       </c>
     </row>
     <row r="37">
@@ -5941,7 +5941,7 @@
         <v>11473</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6666</v>
+        <v>6573</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>13837</v>
@@ -5950,7 +5950,7 @@
         <v>0.8291424785812578</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4817722419795988</v>
+        <v>0.4750452113811319</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>98169</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>93308</v>
+        <v>91970</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>100533</v>
@@ -5971,7 +5971,7 @@
         <v>0.9764831229148486</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.928129424402059</v>
+        <v>0.9148277124133217</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -6066,19 +6066,19 @@
         <v>3971</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>9877</v>
+        <v>9902</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001540681673124294</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0003874577012769902</v>
+        <v>0.000383532585383268</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003832281566268258</v>
+        <v>0.003841881231168061</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -6087,19 +6087,19 @@
         <v>9253</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4741</v>
+        <v>4053</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16101</v>
+        <v>16784</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.005362432711821049</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.002747411659027432</v>
+        <v>0.002348503639954829</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.009330989868565173</v>
+        <v>0.009726594404611816</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>13</v>
@@ -6108,19 +6108,19 @@
         <v>13224</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>7737</v>
+        <v>7420</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>23059</v>
+        <v>22511</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.003073272367372269</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.001798054921979037</v>
+        <v>0.001724476114774471</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.005358882110233665</v>
+        <v>0.005231467081563386</v>
       </c>
     </row>
     <row r="40">
@@ -6137,19 +6137,19 @@
         <v>6751</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2872</v>
+        <v>2859</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14532</v>
+        <v>12637</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002619118418674914</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001114284004753232</v>
+        <v>0.001109159313638608</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005638305176120597</v>
+        <v>0.004903106883780985</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6124</v>
+        <v>6782</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0006553939761901152</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00354900809050643</v>
+        <v>0.003930031493457544</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -6179,19 +6179,19 @@
         <v>7881</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3102</v>
+        <v>3819</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15151</v>
+        <v>15421</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001831629705740388</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0007208244609053131</v>
+        <v>0.0008876192023578781</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003521150111175333</v>
+        <v>0.003583816259082887</v>
       </c>
     </row>
     <row r="41">
@@ -6208,19 +6208,19 @@
         <v>22776</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14351</v>
+        <v>13652</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>34957</v>
+        <v>33678</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008836949106447046</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00556797025988584</v>
+        <v>0.005296781838022436</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01356293538869388</v>
+        <v>0.01306683437580032</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -6229,19 +6229,19 @@
         <v>8903</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4390</v>
+        <v>4061</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16517</v>
+        <v>15536</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005159192436169918</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002544174280048398</v>
+        <v>0.002353207840254077</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.009571935203017841</v>
+        <v>0.009003213970660177</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>30</v>
@@ -6250,19 +6250,19 @@
         <v>31679</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20767</v>
+        <v>22146</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>44752</v>
+        <v>44654</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007362102735895074</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004826218929863117</v>
+        <v>0.005146701697155764</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01040025386327611</v>
+        <v>0.01037748456328877</v>
       </c>
     </row>
     <row r="42">
@@ -6279,19 +6279,19 @@
         <v>2543904</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2530296</v>
+        <v>2530888</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2554663</v>
+        <v>2554690</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9870032508017538</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9817235516280296</v>
+        <v>0.9819529706101819</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9911777430649451</v>
+        <v>0.9911879925316355</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1662</v>
@@ -6300,19 +6300,19 @@
         <v>1706281</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1695845</v>
+        <v>1696130</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1713507</v>
+        <v>1713778</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9888229808758189</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9827747803704231</v>
+        <v>0.9829402972351743</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9930106228910062</v>
+        <v>0.9931674765627353</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4059</v>
@@ -6321,19 +6321,19 @@
         <v>4250185</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4234477</v>
+        <v>4233961</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4264780</v>
+        <v>4263299</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9877329951909922</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9840824721140164</v>
+        <v>0.9839624629144736</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9911248434207572</v>
+        <v>0.9907806193767177</v>
       </c>
     </row>
     <row r="43">
